--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/4_Ağrı_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/4_Ağrı_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95304118-F180-4610-B8E5-FEB094FD830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6650E6-28D0-4FFD-8AC7-46DF19FB844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29C7627C-2DD7-4F79-AB52-CA7203A364D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{921820E3-A793-4FDA-B8DE-0835FADD77DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BA1B8495-C74E-4B9F-B27B-23DF650978AE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{EB826680-D67E-42C7-BEDF-E65DB7615D91}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0B2C0E6C-5E12-40E0-8B75-47CB71F01212}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{D3FD6DD6-9110-4589-8D46-555E430E5E1B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F30950C3-000C-4CEE-8F3E-503AD8E39B68}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{24B2DF33-C108-4089-965A-D62AF7F00310}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0E769951-6113-4CBD-BD59-6C3D14FC3011}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9525A4F6-CF5C-457C-8E39-97927DDF16FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBF2723-F133-4267-A0C6-B41703BF6E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B529DB11-506A-4D46-9E05-523068FB11BE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2443,18 +2443,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A7A8235-C013-433B-9473-E08226D73146}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D28BCB0-501F-4F0C-9113-76820B2A2900}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A93BF5A2-06B4-434B-8BFD-EACE1AFB0192}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F4A00C0C-0D92-4D4C-B07C-4289BFED07CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EBF8E804-A993-4C53-BA6B-D5A18573B471}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{98E0E1A3-AECE-4017-9AFD-6D36BF9B524E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B4577E07-862F-4F5B-BA5C-F2B763E06846}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F97EDB88-9A81-41A2-8241-DA409BC8FBDD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0B7BC358-9C55-4DAB-9DB2-7FB67ACF9660}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{576D029A-6779-420F-91C7-03739F620C59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F7F52DC0-DAD9-4437-98BC-8D4676C8E7F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{154D274C-85B7-43D0-83A0-C5FB889CCB9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DEFE6BB1-4000-47C0-AEEE-01DA28816B90}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{057FE30A-C114-4D5A-93F4-2D6636374BCF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8F6BF37B-1E2C-401C-A684-E9C011B838D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0EB0D622-0C37-45B0-8F6D-E12DF0D24FC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{171B560C-D672-4146-9D24-B603BC44F869}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B53B146E-6C48-4CF0-8456-2553F2C59CB6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9386E35A-8DFB-46A0-9BDD-ADD87C394ED4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7E46C33D-3847-4D66-92F2-267142360319}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FE051193-F397-4DEF-83F9-0C67E7546B1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C034A1FF-950B-4C78-A6C2-222EDAF8DB70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{26C1D96A-890D-4307-BBE4-85BA797987B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4EFF8F63-3552-42A7-9669-E194B3DFAC84}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FA8D3C-E448-4CBC-9DAA-F8D5D984D362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF07E7-5F0A-44C5-93F6-BBC5634747FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3652,18 +3652,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C3F74A05-B126-4724-BA39-C0CC7F60797B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EBF2E273-89B4-4E9A-A03B-1B9718303C29}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{10C9C6C6-9BD3-4CBB-9602-84D13037A6E9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B86E77EE-E88D-44A6-9C67-A62C7627774C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FCBDAAE-E3F9-4D3C-B484-35EA83B18DC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F54CBD8E-D3D4-42DC-BD99-2C51CBC46CAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2E31E2D7-FB60-41DE-A439-ABA3837492EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BE8F01CC-682F-4FC2-96DE-8E947FEA9A41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{00DCE521-9CDB-4CAC-A863-E30584980BDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{124AD337-5DBB-4D31-8C80-F84CA38B74E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5E25EC9F-FBDE-4111-9514-7C09839F7587}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{65DC5EF0-1394-4574-B0D4-CC1538EDC2C7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5EAF52E9-FDCA-43B7-B30D-E2F4B739629C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C359706-00A9-4929-809C-A1C0A30B135C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A1041385-4EC0-44DB-AC44-C9C5B0D9AAEA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3C40061B-C7B0-4EE0-AE93-7771EAB74052}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66B71F61-A11E-481D-80D7-3DD07B13B342}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{26D7EFEA-B4A1-4F3F-A764-99E4BFF883E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{44245E4B-4C28-41B9-9B10-DBC853BB053B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ECD7C408-7A07-4C0F-BFDE-169D48A9051B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B82A6929-5484-449A-A99D-8995750DD7D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5C58F9C7-7B52-4A7E-89C7-111343DA484F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B01C8E3B-EF50-4D61-885D-2C774D3D6EE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{552DD8EA-C289-4F9B-81B0-BCC767F55F5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3676,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B4679-00DB-4906-976D-C729F79D0318}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E1A8A7-9596-4166-B44C-F04A9E5622A7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4857,18 +4857,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{00E08EF0-4065-4886-808C-1EEFC8BC4D16}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6A1051A4-B0F8-4DDB-A957-C377D878D915}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A9DD9D3B-4985-4478-8763-490F132B64EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80EE835A-3074-4957-8C38-57F424A80B9D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5444B4C9-13E0-4548-A9B2-16BDCD59BDC1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E411DB78-DFA8-4068-A3F8-9CFE3DB99743}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FDDB6853-BBFF-43D0-B16B-4BD143CE327D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FF71B15C-DE23-4E67-904C-02BBB19A1029}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B6CDA6C7-6404-4FF2-AE0D-E4E8B0696715}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F5E921CF-E16E-4CED-8F57-4671FB8C38CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4B145F02-2B53-487B-AF31-16A947E4567F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F4AD7AE0-827F-4D38-832E-DFEDFCEA2316}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9CC3DEA9-8386-4F0F-9880-C16DFB5A7510}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E22529DC-1D9B-460E-BAB0-F42A5E1913EB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{021B4509-24CC-43EE-BA8E-5529042418BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1846B72F-4F4C-4581-9E0C-EFAD4B53AFDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{77BEDC07-9782-41E4-8262-BE5DAF915B12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8F194B57-95FA-4767-866F-BBBDDC2C23C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4AC4D145-2805-4F2A-99F4-45012D69C1E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E30C0402-3023-4F04-8085-2F5B366DE444}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{84DB3544-B5D6-48E9-8091-E7A6010A7BCF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA4E5FE6-05C2-4F79-A3D3-1CA31911FBC4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9EE495D-4CCA-4741-99AC-E21D3332BF19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{94B9C6AA-F994-40FB-A18A-214BAEC3FAC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4881,7 +4881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D56B4-7948-4853-BD29-69D393DD864E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAFC82-51F5-4AE4-A076-F0AE3516D423}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6040,18 +6040,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA559723-DE05-41E1-875B-C18B6823577B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{298B2CD1-0CB0-4214-83AA-B37BB12F69B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C6297B26-3703-4132-A6AA-88CE921247F2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BF5C0FE0-3DAB-4914-830A-5E7CBA4F4C07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8EF9B9D8-A7D1-412D-9E62-B4F2DF50CE3E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ADE8E73C-B0DD-4BAC-8B57-E8E79BAFA41F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6201FDB4-EAFC-4D5F-A020-936F78DD97B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3E37BC89-0590-42D7-A172-EC6350367168}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4CA694EC-5093-411E-8D5B-1890DF2F4B84}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F75E2825-EDE4-4849-B6DA-04BF2A31B3FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0CDDB3C7-60B9-46AC-B260-964CF3CAB30C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{36ACB3E9-D40A-43ED-B7E0-C1438087CE77}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5EDD482A-07D1-4456-9580-E637E504BA9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{86A055AF-E7A0-4E34-9BD2-5B7812F73244}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1AF16200-2145-4173-84B0-363DA9793E9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FFE62088-A1FC-4794-9A23-0D3C86ED8EDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A90A55D4-9658-4281-BC29-7F2821B25D8E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89CDFFF0-70E3-4D35-B357-2EED55839F12}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{804B9842-9E18-4BA1-839A-6DDFA179A67F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9632412C-E187-4E9C-A31B-9A17ECFC5545}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BE1B6520-F12E-4B3E-98FC-3B34105805D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{201DFDB6-BEC0-4254-9B65-C862CDEFAC19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{088B2E03-D1F9-4573-BE75-C71FB0206013}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C46BE185-AFE9-4B48-9617-E51D7C2FEC65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6064,7 +6064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E958F574-94BF-4395-8FB7-321CCBDF31F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F66A28-EE66-42BA-87D0-75707F2C1DBA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7273,18 +7273,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3070AE9A-E9DD-4358-8722-97900B44E5C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6906A952-4A73-4881-A95E-FA1177D088F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4178A1E6-74F3-4AE6-A167-CCB3EF31711F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CA06500C-93B3-44D3-B466-B6B64DA65515}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0324091D-6501-4ACB-86E3-6D7BC719E8A0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E679E626-4FA7-4223-8BC2-E6C856C014D4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{90D49639-624B-4ECF-86DA-6FAB89E7071E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D73FFD73-12EA-4347-BB59-44D35BE5C969}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3B0FDD97-03DF-4BCB-A29A-8D01B2757F68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9F9F672D-6FD2-4118-BD0B-DB1901CC62CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5354033E-731C-44D0-85D3-CE555BA8EE06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{47662052-B9E7-4F15-913E-DA6CC586014B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8FF22EFC-C88F-449C-A3D3-AD96095ABEAA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CA715F60-B73F-4348-9560-0F97C21E7D53}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DE32A1BD-5E48-416D-AB0C-D375556471EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1382F4A5-C064-40AE-95DE-D9935351DD39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B0C11B5-8E6B-44E1-A8FB-5F21F5E4B31A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{71194621-D787-4A5A-926D-E2516EB6FCB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8170CA42-F6A7-422D-9865-1DCCACD0B50A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA291C63-315F-4F82-918B-110E19DD924E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1760DF36-4DB3-4FD7-B1B0-16730FDFD8F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC8D4670-415D-4D8A-8852-1B542D0F18A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6A0A0112-CBE0-4C10-A43C-F08EC3758C90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F011536-28DA-4D41-880B-177150F686AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7297,7 +7297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85BB746-A65D-4812-AE5A-5E9AE254E64D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E326EC-DFE1-4852-821A-1EA3857983BE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8506,18 +8506,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9151D03B-3DAC-4FF3-8967-5BC61915C764}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0776A66A-E216-4E93-8B9B-6BAF243D2E61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E8DBB1EA-1765-40D7-95EA-62CE4DD77105}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4812A5A0-87B9-472B-9CF3-CAC40AFEEC60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0DD7074E-7650-4CFC-B1EF-070E3541680A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C16DA026-406E-45BB-BCF3-8FA68B55229E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4C8B65F3-ACBA-4968-B27B-30F96F9DA47B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3CCE4125-480D-41AD-9EEE-4AF755836593}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{80EE5F79-C9FB-40B2-B956-BAFD22D7F338}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6714A661-CA4F-4080-BAAD-28E85DC1A066}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ABD426D7-E4B8-45D6-BAD9-EFD69CA80DCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D6B09B2-7E8D-4F07-B8DA-2F5CA5053A03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ABDB01B2-EDF4-456D-8A85-AB22C14BE2DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{228E5BFD-7D03-4B2F-8AF2-69E45F2D9120}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1F1274CA-A14E-4C9E-8450-276AC34BBAE0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{690CEF63-55E1-4F13-B486-77B93822959B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6E3A852A-9DA0-4373-844C-D8A3CE958049}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8F97EFA7-E91A-4EDC-B8FD-671E5BD74262}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{85AE5583-06CF-43D3-BF14-51777EA5E9CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D05CF4E8-D24F-46E5-B596-9B9EF7DF1432}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B3B9B39D-A7D2-4455-B87A-2E2C09CA46DE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AFF768FD-D0F6-45CF-A4E6-816816584EF6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D970B2A-7C2E-4823-B99E-F59EF8BF895A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5C6C1FF8-8D49-49D3-AB14-1DB01B229A07}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8530,7 +8530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CF3479-8FF6-4A32-984D-5A99551B0C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001C04A0-BD5E-4409-950E-C5FEAB28A937}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9741,18 +9741,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4AC9E970-EE72-4F74-A506-93DF83F23BD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5D95DDC2-6F9F-4B52-BF1E-5BFA3565A2E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1DB1996E-CC72-4443-B777-D36AFFAD4E41}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A0121F46-637D-4150-83F2-3C96A79A997F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58C8CFF6-9D8C-46A5-A959-34379CFEB5F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C8A3E2BF-BD9C-4DA6-B1D1-DD0AD643D537}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EDF32275-D097-479C-9A42-47D691061453}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{91D90ABA-3267-481E-AE0F-28584B6B738B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{917B2DDB-B048-412B-8E69-41F608BC8C16}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{15B2DF44-0BE3-4CAA-BFF5-B7EF9A319FAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{24187D1F-1906-4253-9C28-4D89945E7314}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F8725C3D-294E-4D00-BC26-AD4E9AA92C63}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5E98BC08-010C-4360-8E0D-48235CC62F54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3820E395-AA28-4CC0-99F1-D7004821C8D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FFC18A39-2016-4F09-A5B5-36AF79CFD476}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{63120D2D-10BA-4D9C-9799-43D69ECF3920}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0784A3EB-3D3F-40B9-AB90-59D184C2BAB9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B51AF1C9-C4E3-484D-B135-8060EBEA4EB2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A78D09B8-F08D-4CAC-A021-D64DCB28EF9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{785E3F2C-F059-4AD1-8A6F-CCAB7D326C6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{84F3DC16-89CC-4642-983E-1698D57E3263}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B16781DD-073B-4E21-8865-FA4B3E82FB03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D1F1B12-575B-40BB-87AC-2EE188BEC33B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3350C367-7F47-485D-93CE-33284C63F628}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9765,7 +9765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D3DDFE-0DBE-4E2A-A5AC-870F37AA4A7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DB0BAC-B5C1-40E3-9540-D68E93B1E19D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10964,18 +10964,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DCE95E12-8E79-4DD3-819C-7A5116DDEC1A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F661D86D-ACB7-4769-BAE2-03BF09B56E2B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E677C003-12FF-4BF6-ADB8-1E25A5865812}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F5B0E03F-29F4-478A-9E39-C5ABA2089D23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A34A63F-8D85-43B0-A151-5366C9C36418}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E4D8BB3D-CEFB-466A-999F-DD9CBA6E56C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ED15A0D6-4E32-48E9-B89C-0BDD50CACCB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{147EB9DA-B0AC-48B0-BD28-54058CA5115C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{93E0FC38-C7E9-49E5-A5A3-01FC1A176540}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{05F0E318-A115-4087-8234-66BA01412AEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AACF1C7E-EE5E-4D0E-9406-1736458110A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1ACA907E-098C-4009-B1F0-9551418EDD5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{342E51CE-1B71-4312-8162-DA1AF1795988}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AE5DB303-440B-4C7E-8557-5F48E55240D4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{656C99A5-3145-47D2-B8F3-57999A5AFC35}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5FB979EB-BDD0-423D-828B-D37DEC3F1CC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4557DDC4-EE39-4E12-80C6-CB376C932FDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ED73B673-BD2F-495B-8306-BB8DE3CFF4D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2CB518B0-93D8-4EAE-ABC1-6D65C38152BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DC98BD6B-F72E-4D03-BCD2-8771AA4AAB57}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB219E40-3A9F-415E-B0A6-6F8E0535C1CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E4E4B91-953C-4297-9B4F-B4880651D10B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4B013CC5-0C27-480C-BFA1-15C9FD190B5E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{12CDDA7C-9503-4576-A620-AE67428EC731}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10988,7 +10988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21BB8A5-513F-400E-ADFC-07BD6EA4BDA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E827F3C-B07B-46FE-A100-C7517F569C3F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12187,18 +12187,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7D1B9480-D941-4CB4-91EB-90A52A506493}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6AAA56EF-4EB1-46A8-8F98-CD4E96A310B0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0D353F69-FBEC-44DC-937A-3F07A86A2FD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36710431-F4B6-4FCF-BDBD-15653690C880}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{32EE3717-A936-4D6B-9473-8B565884725A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{379A7964-6EF1-46B2-8DD8-BA84B8FE0859}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8E2466CB-AFBA-4ABF-A2B6-510D6ADA93BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C379A7F9-815E-46F9-A46F-E8A396D1018A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8F543136-39EC-45C3-A9C2-78C3DDF87656}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EFA16523-CB6B-47FF-9B96-0D96D9FEB005}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9BA0009B-A5EB-4BF3-895A-FC2A05C871BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DF012CDA-F62F-4DBF-B6E2-C73DB040322D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{422062F1-F29E-47BA-A8A6-3DE76CD44A4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{36A46EDA-09B2-4E8F-8FBC-40A0E9E0311A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{42AA6C55-F646-4958-841F-30AA30CA4BD7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C5B4748-F829-4855-A392-973892DC4BB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B5DA56A-6899-4A61-812C-D54913A369FE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EA201F00-955F-4579-A8DA-2A1CE176D7D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ACC808FF-8FF6-48ED-B526-9EA33689445F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CF98D020-2774-453C-8F18-06ED58AEB2E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2C497D77-0A44-4B0A-9891-6D6252426CB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EACA0D4C-D488-48D3-AA1F-B081C9CD7745}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3266FEF5-E1D9-4C4C-A8C7-532D8910AC1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4A4ADC26-E85A-4C3A-80CE-B2EA809A5516}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12211,7 +12211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE3E70D-0C2C-4D70-B65C-69DD39863E5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B4D54F-D4BE-4E22-AB39-25E8B7B6574E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13410,18 +13410,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F539C95E-A571-4307-B87C-5289E1AD9D84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D3B5867-4457-4290-86C9-627BE8D51A8C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{634CFC9E-F442-4C21-9E55-43EA520BB814}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4C464FE6-0606-43AC-B9D3-ABFD1FCD8339}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{92A9E6C0-8708-4AB0-893C-9F0F21EEBD81}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C881704D-0F06-4F7B-9F30-EB9E68CB0854}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C04C879D-5B23-4A9B-BD77-8513ACF0B2B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C8A905AB-09C6-4C13-B773-459746C30E94}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4F3E24AE-E68E-4D76-9F62-11CB9F4152CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B6FBF41E-9E65-4E79-976E-BAFBB9B9F984}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7147B48E-7ED2-4390-901F-62ED98FD4115}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6177AC95-415A-48FB-B306-00B854A5EE7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0138AED8-AF6B-41C1-BE9B-D256ABC7E8C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7B64104D-037C-4BF0-AD53-5EC05A17D57B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D2EB5393-5458-4B25-A10A-8674FBB0AE26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B763D3D2-ADD0-470C-9FA6-F3095265C37D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3CEA04BA-8EBA-4D62-BEC7-35094CF1430A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D2054C05-74F6-4A15-BF80-4ABBF60818DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EA910899-CB5F-45A1-9F98-816485734481}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1A1025F6-63AF-4301-82CA-D4A61E4A49B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{32E9282B-44DA-4B97-B4B7-F30AE75AA914}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D4B419D-1631-445A-B7EA-2743E0819D0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70102926-7D77-4001-A7D6-19FC44ECBE32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3A866526-9F93-4A63-8EE8-43AF69D6B17A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13434,7 +13434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA9E721-6280-4A8B-B3BD-9694350EAC65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D2B991-1DF3-425E-AEAB-CAFCF9986822}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14633,18 +14633,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7491DA41-0528-4639-BBF2-2CC1C51B9C6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{293ED492-5B45-47EE-B09E-7B6B9CC4742D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{32759211-C7EE-488B-A30D-0574D2683228}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4C0DFBFF-4839-4B94-84F6-3570CFEA2506}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D3720047-0697-4969-A6E8-2610051F5319}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00283FAC-7C1E-4421-88AC-FE46F0868231}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CBDB3E67-A4E7-49EE-ABE1-0FFF5B28284F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C2EA7218-A87A-43CE-A193-EC0EDCD91B7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8A9E238D-0E3B-4EB1-A9DB-4E1B50227949}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E3CC42FA-770D-4F2E-92EE-014312456190}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7E78AE28-C368-4F9D-8F87-975443DFBE44}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1F301713-F952-49D3-84B0-DA93B0ED8416}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4A46D477-2436-4A42-ADAC-6BD776330206}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{741A177C-E9E8-4F0F-BA59-0B4EBE0F0303}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1C4E6B6B-37F1-475F-81E3-0AD6B29BC843}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38357EB8-6B51-4D47-AB76-65BC8868928C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{58532D31-7234-4B14-AAA4-53F6EDE8FDA5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B0AE4A7A-9271-47D6-8101-796D2F9A0321}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5A76572E-CC93-47F1-B304-6523AC3F079F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E79D279B-94A3-4BE7-BD29-BC1E838EE14E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF10C561-7E55-4DA2-B9F2-567022EF4F6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E8D90168-C38F-42E0-A3F7-27B07C9DFD20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC2B249B-0AB4-4ABC-AD93-830117818368}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C4F4518C-75EA-4F5F-8952-0842910723EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14657,7 +14657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB963E6D-D41E-482D-B568-5DD9EF63D383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356A770C-1164-4EBD-9BAA-91F9AC161154}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15844,18 +15844,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3BD6069E-2B59-4838-877F-704A13F2CC42}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1557E483-ED6B-40BD-8D8F-9B1CCC2EE99E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D4DCBEF4-31A2-4315-8CEE-AFA03B7A0536}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6814A7C3-5CF4-4083-A087-1BAAE57C10D5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{55CBFAE8-23BF-4C1C-B675-BAB5DFB25EB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3FE9B3A2-B25D-4AFF-B479-96FBF839DFCB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{60EF04EF-88F5-43F2-9ACF-2B2410EFA989}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6BFDA76A-7699-42F5-84E8-ED4BCB41E867}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C09F0B0C-8DF2-4438-A8B7-E0179A8317F8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7479604F-2A74-41BA-8236-76FFD57698F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C327B845-5CBE-4EBE-AF41-0131FD0CD601}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{77468170-4DC2-4948-8F8F-3818BB1A7721}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7F3E7852-B2DC-4D9D-B1A1-693DDBD58943}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4B9CDBF7-6FAB-4779-8A1C-AC8FD8000D29}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{57BF3674-76DF-408D-9528-6BB453951494}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CFBB32B7-1FEA-4C79-A619-8A3DF83BCDE0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07D2593A-5F25-4262-B441-436D8803328C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BB6E7EC0-F02F-4A32-9CA4-B59F0A0E941D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1315F24A-C847-470F-8B51-D31F45E88BE4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{22438D81-8573-4DDA-96AA-8B9B873AB01D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{73AF6712-4AC2-4D8D-81F7-E17645776BF6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{35CD94FF-2CA1-41CE-AF6E-19E9334EEDDA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{61B9EA07-1B06-4B32-A257-8C8F7BEF5DF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2ECF6077-510A-44F1-80F3-250CFC94CC37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
